--- a/src/main/resources/PersonnelFormatStandardExp.xlsx
+++ b/src/main/resources/PersonnelFormatStandardExp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve">Matricule</t>
   </si>
@@ -59,15 +59,22 @@
   </si>
   <si>
     <t xml:space="preserve">categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format cell  text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format cell  date : jj/mm/yy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -110,8 +117,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,7 +165,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,6 +182,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -187,15 +258,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,16 +311,53 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
